--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$85</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -533,6 +530,9 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
+    <t>finished</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -781,7 +781,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -985,68 +985,6 @@
     <t>PV1-44, PV1-45</t>
   </si>
   <si>
-    <t>Encounter.period.id</t>
-  </si>
-  <si>
-    <t>Encounter.period.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Encounter.period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>Encounter.period.end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
     <t>Encounter.length</t>
   </si>
   <si>
@@ -1098,60 +1036,6 @@
   </si>
   <si>
     <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Encounter.reasonReference</t>
@@ -1720,21 +1604,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1911,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1947,7 +1816,7 @@
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2080,7 +1949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2189,7 +2058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -2300,7 +2169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -2409,7 +2278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2520,7 +2389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2631,7 +2500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2742,7 +2611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2853,7 +2722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2863,7 +2732,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -2978,7 +2847,7 @@
         <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -3083,13 +2952,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3200,7 +3069,7 @@
         <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3293,7 +3162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>146</v>
       </c>
@@ -3406,7 +3275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>153</v>
       </c>
@@ -3515,7 +3384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>161</v>
       </c>
@@ -3560,7 +3429,7 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -3575,13 +3444,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3614,21 +3483,21 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3651,16 +3520,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3710,7 +3579,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3728,7 +3597,7 @@
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -3737,9 +3606,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3762,13 +3631,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3819,7 +3688,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3837,7 +3706,7 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3846,9 +3715,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3874,10 +3743,10 @@
         <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>150</v>
@@ -3930,7 +3799,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3948,7 +3817,7 @@
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3957,13 +3826,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3985,10 +3854,10 @@
         <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>150</v>
@@ -4043,7 +3912,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4070,9 +3939,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4128,13 +3997,13 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -4152,7 +4021,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>84</v>
@@ -4170,7 +4039,7 @@
         <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -4179,9 +4048,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4204,13 +4073,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4261,7 +4130,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>84</v>
@@ -4279,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -4288,9 +4157,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4313,13 +4182,13 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4346,13 +4215,13 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
@@ -4370,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>84</v>
@@ -4388,18 +4257,18 @@
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4422,13 +4291,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4479,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4497,7 +4366,7 @@
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4506,9 +4375,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4531,13 +4400,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4588,7 +4457,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4606,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4615,9 +4484,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4643,10 +4512,10 @@
         <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>150</v>
@@ -4699,7 +4568,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4717,7 +4586,7 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4726,13 +4595,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4754,10 +4623,10 @@
         <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>150</v>
@@ -4812,7 +4681,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4839,9 +4708,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4864,13 +4733,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4897,13 +4766,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4921,7 +4790,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>84</v>
@@ -4939,7 +4808,7 @@
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4948,9 +4817,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4973,13 +4842,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5030,7 +4899,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>84</v>
@@ -5048,7 +4917,7 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -5057,9 +4926,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5082,16 +4951,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5117,13 +4986,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5141,7 +5010,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5156,21 +5025,21 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5193,13 +5062,13 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5226,13 +5095,13 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -5250,7 +5119,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5265,21 +5134,21 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5302,13 +5171,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5335,13 +5204,13 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5359,7 +5228,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5377,22 +5246,22 @@
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5402,7 +5271,7 @@
         <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5411,16 +5280,16 @@
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5470,7 +5339,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5485,21 +5354,21 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5522,13 +5391,13 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5579,7 +5448,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5594,25 +5463,25 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5631,13 +5500,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5688,7 +5557,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5703,10 +5572,10 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5715,9 +5584,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5740,13 +5609,13 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5797,7 +5666,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5812,21 +5681,21 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5849,13 +5718,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5906,7 +5775,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5924,7 +5793,7 @@
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5933,9 +5802,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5961,10 +5830,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>150</v>
@@ -6017,7 +5886,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6035,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6044,13 +5913,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6072,10 +5941,10 @@
         <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>150</v>
@@ -6130,7 +5999,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6157,9 +6026,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6182,16 +6051,16 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6217,13 +6086,13 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6241,7 +6110,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6256,21 +6125,21 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6293,13 +6162,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6350,7 +6219,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6368,18 +6237,18 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6402,13 +6271,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6459,7 +6328,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6474,21 +6343,21 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6511,13 +6380,13 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6568,7 +6437,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6583,21 +6452,21 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6605,7 +6474,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>84</v>
@@ -6620,16 +6489,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6679,7 +6548,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6691,24 +6560,24 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6731,15 +6600,17 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6788,7 +6659,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6800,28 +6671,28 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6837,19 +6708,19 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6875,31 +6746,29 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6911,38 +6780,38 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6951,16 +6820,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7010,36 +6879,36 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7050,7 +6919,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7062,24 +6931,20 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7123,16 +6988,16 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
@@ -7141,18 +7006,18 @@
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7175,17 +7040,15 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7234,7 +7097,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7246,56 +7109,56 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>336</v>
+        <v>178</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7321,11 +7184,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7343,7 +7208,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7355,56 +7220,60 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7452,25 +7321,25 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7479,20 +7348,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>147</v>
+        <v>340</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7501,19 +7370,19 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7551,48 +7420,48 @@
         <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7603,7 +7472,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7612,23 +7481,19 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7652,13 +7517,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7676,13 +7541,13 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
@@ -7694,18 +7559,18 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7719,29 +7584,25 @@
         <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7789,7 +7650,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7807,22 +7668,22 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7838,19 +7699,19 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7900,7 +7761,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7915,21 +7776,21 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7940,7 +7801,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -7949,18 +7810,20 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8009,13 +7872,13 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8027,7 +7890,7 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8036,9 +7899,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8061,13 +7924,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8118,7 +7981,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8136,7 +7999,7 @@
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8145,9 +8008,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8173,10 +8036,10 @@
         <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>150</v>
@@ -8229,7 +8092,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8247,7 +8110,7 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8256,13 +8119,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8284,10 +8147,10 @@
         <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>150</v>
@@ -8342,7 +8205,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8369,17 +8232,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>84</v>
@@ -8391,20 +8254,18 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8453,10 +8314,10 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -8468,21 +8329,21 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>382</v>
+        <v>158</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8505,13 +8366,13 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8538,13 +8399,13 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8562,7 +8423,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8580,7 +8441,7 @@
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>177</v>
+        <v>379</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8589,9 +8450,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8614,13 +8475,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8647,13 +8508,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8671,7 +8532,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8689,18 +8550,18 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8711,7 +8572,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -8723,17 +8584,15 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8758,13 +8617,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -8782,13 +8641,13 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -8800,18 +8659,18 @@
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8822,7 +8681,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8834,18 +8693,20 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8869,13 +8730,13 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -8893,13 +8754,13 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -8911,18 +8772,18 @@
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8933,7 +8794,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -8945,13 +8806,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>181</v>
+        <v>404</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8978,13 +8839,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9002,40 +8863,40 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>182</v>
+        <v>402</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>177</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9054,17 +8915,15 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9089,13 +8948,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -9113,7 +8972,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9125,60 +8984,56 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>376</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9226,36 +9081,36 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>127</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9278,13 +9133,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9311,13 +9166,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9335,7 +9190,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9353,18 +9208,18 @@
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>158</v>
+        <v>426</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9372,7 +9227,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>84</v>
@@ -9387,15 +9242,17 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>413</v>
+        <v>174</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9444,13 +9301,13 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
@@ -9462,7 +9319,7 @@
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9471,9 +9328,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9496,13 +9353,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>418</v>
+        <v>181</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9529,13 +9386,13 @@
         <v>78</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>78</v>
@@ -9553,7 +9410,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>417</v>
+        <v>183</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9565,35 +9422,35 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>422</v>
+        <v>178</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9605,15 +9462,17 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9638,13 +9497,13 @@
         <v>78</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>78</v>
@@ -9662,40 +9521,40 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>187</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9708,25 +9567,25 @@
         <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>431</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
+        <v>191</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>433</v>
+        <v>150</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -9751,13 +9610,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -9775,7 +9634,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9787,24 +9646,24 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9812,10 +9671,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -9827,13 +9686,13 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>220</v>
+        <v>437</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9860,13 +9719,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -9884,13 +9743,13 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
@@ -9899,21 +9758,21 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>444</v>
+        <v>295</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9924,7 +9783,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -9936,15 +9795,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -9969,13 +9830,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -9993,13 +9854,13 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -10011,18 +9872,18 @@
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10045,15 +9906,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10078,13 +9941,11 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10102,7 +9963,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10120,18 +9981,18 @@
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10154,13 +10015,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10187,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10211,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10229,18 +10090,18 @@
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>463</v>
+        <v>288</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10251,7 +10112,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10263,17 +10124,15 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>173</v>
+        <v>459</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10322,36 +10181,36 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10374,15 +10233,17 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>179</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10292,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>182</v>
+        <v>464</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10443,922 +10304,22 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X82" s="2"/>
-      <c r="Y82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM85">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1023,19 +1023,203 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.extension</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Encounter.reasonReference</t>
@@ -1780,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1816,7 +2000,7 @@
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -6746,11 +6930,13 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -6783,32 +6969,32 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6817,20 +7003,18 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -6879,40 +7063,40 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6928,18 +7112,20 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -6976,19 +7162,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7000,13 +7186,13 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>178</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7017,7 +7203,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7028,7 +7214,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7037,19 +7223,23 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7097,47 +7287,47 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7149,17 +7339,15 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7208,19 +7396,19 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7237,11 +7425,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7254,26 +7442,24 @@
         <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7309,19 +7495,19 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7339,7 +7525,7 @@
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7350,15 +7536,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>84</v>
@@ -7373,18 +7559,20 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>341</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7432,10 +7620,10 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -7447,21 +7635,21 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7481,18 +7669,20 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7517,13 +7707,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7541,7 +7731,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7559,18 +7749,18 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7590,19 +7780,21 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7626,13 +7818,11 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -7650,7 +7840,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7668,18 +7858,18 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7690,7 +7880,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7699,21 +7889,21 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>358</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7761,13 +7951,13 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -7779,18 +7969,18 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7810,21 +8000,23 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
@@ -7872,7 +8064,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7890,18 +8082,18 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7921,19 +8113,23 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7981,7 +8177,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7993,28 +8189,28 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8030,19 +8226,19 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8092,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8104,28 +8300,28 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8138,26 +8334,22 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8205,7 +8397,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8217,13 +8409,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8234,7 +8426,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8257,13 +8449,13 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8314,7 +8506,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8326,35 +8518,35 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8366,15 +8558,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8423,25 +8617,25 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>178</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8452,39 +8646,43 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8508,13 +8706,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8532,44 +8730,44 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>84</v>
@@ -8581,18 +8779,20 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>221</v>
+        <v>402</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8617,13 +8817,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -8641,10 +8841,10 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>84</v>
@@ -8656,21 +8856,21 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8681,7 +8881,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8696,17 +8896,13 @@
         <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8730,13 +8926,13 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -8754,13 +8950,13 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -8772,18 +8968,18 @@
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8794,7 +8990,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -8806,13 +9002,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>221</v>
+        <v>414</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8839,13 +9035,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -8863,13 +9059,13 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -8881,18 +9077,18 @@
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8915,15 +9111,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>221</v>
+        <v>419</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -8948,13 +9146,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -8972,7 +9170,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8990,18 +9188,18 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9024,15 +9222,17 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9081,7 +9281,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9099,18 +9299,18 @@
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9133,13 +9333,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>422</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>423</v>
+        <v>182</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9166,13 +9366,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9190,7 +9390,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>421</v>
+        <v>183</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9202,35 +9402,35 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>426</v>
+        <v>178</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9242,16 +9442,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>186</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>150</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9301,7 +9501,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9313,13 +9513,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>432</v>
+        <v>178</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9330,39 +9530,43 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9410,25 +9614,25 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9439,18 +9643,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9462,17 +9666,15 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9521,72 +9723,68 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>187</v>
+        <v>432</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>129</v>
+        <v>437</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
       </c>
@@ -9634,25 +9832,25 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>127</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
@@ -9663,7 +9861,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9671,7 +9869,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>84</v>
@@ -9686,13 +9884,13 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>437</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9719,13 +9917,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -9743,10 +9941,10 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -9758,21 +9956,21 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>295</v>
+        <v>446</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9795,17 +9993,15 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -9830,31 +10026,31 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9872,18 +10068,18 @@
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>449</v>
+        <v>178</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9894,7 +10090,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -9909,15 +10105,17 @@
         <v>221</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
       </c>
@@ -9941,35 +10139,37 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="Y74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -9981,18 +10181,18 @@
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10003,7 +10203,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10015,13 +10215,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10048,13 +10248,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10072,13 +10272,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10090,18 +10290,18 @@
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>288</v>
+        <v>468</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10112,7 +10312,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10124,13 +10324,13 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>459</v>
+        <v>221</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10157,13 +10357,13 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10181,13 +10381,13 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -10196,21 +10396,21 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10233,17 +10433,15 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -10292,7 +10490,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10307,15 +10505,1226 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1023,10 +1023,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>Reason why the encounter takes place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1039,187 +1036,6 @@
   </si>
   <si>
     <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Encounter.reasonReference</t>
@@ -1964,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2000,7 +1816,7 @@
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -6930,13 +6746,11 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -6969,32 +6783,32 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7003,18 +6817,20 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7063,40 +6879,40 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7112,20 +6928,18 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7162,19 +6976,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7186,13 +7000,13 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7203,7 +7017,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7214,7 +7028,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7223,23 +7037,19 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7287,47 +7097,47 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>183</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>339</v>
+        <v>178</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7339,15 +7149,17 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7396,19 +7208,19 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7425,11 +7237,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7442,24 +7254,26 @@
         <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7495,19 +7309,19 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7525,7 +7339,7 @@
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7536,15 +7350,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>84</v>
@@ -7559,20 +7373,18 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7620,10 +7432,10 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>84</v>
@@ -7635,21 +7447,21 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7669,20 +7481,18 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7707,13 +7517,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7731,7 +7541,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7749,18 +7559,18 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7780,21 +7590,19 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7818,11 +7626,13 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -7840,7 +7650,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7858,18 +7668,18 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7880,7 +7690,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7889,21 +7699,21 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7951,13 +7761,13 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -7969,18 +7779,18 @@
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8000,23 +7810,21 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8064,7 +7872,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8082,18 +7890,18 @@
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8113,23 +7921,19 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8177,7 +7981,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>387</v>
+        <v>183</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8189,28 +7993,28 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>320</v>
+        <v>147</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8226,19 +8030,19 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>323</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8288,7 +8092,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8300,28 +8104,28 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8334,22 +8138,26 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8397,7 +8205,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8409,13 +8217,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8426,7 +8234,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8449,13 +8257,13 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8506,7 +8314,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>183</v>
+        <v>371</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8518,35 +8326,35 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8558,17 +8366,15 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>129</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8617,25 +8423,25 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8646,43 +8452,39 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8706,13 +8508,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8730,44 +8532,44 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>84</v>
@@ -8779,20 +8581,18 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>402</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8817,13 +8617,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -8841,10 +8641,10 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>84</v>
@@ -8856,21 +8656,21 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8881,7 +8681,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8896,13 +8696,17 @@
         <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8926,13 +8730,13 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -8950,13 +8754,13 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -8968,18 +8772,18 @@
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>178</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8990,7 +8794,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9002,13 +8806,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>414</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9035,13 +8839,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9059,13 +8863,13 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -9077,18 +8881,18 @@
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9111,17 +8915,15 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9146,13 +8948,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -9170,7 +8972,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9188,18 +8990,18 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9222,17 +9024,15 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9281,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9299,18 +9099,18 @@
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9333,13 +9133,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>181</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9366,13 +9166,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9390,7 +9190,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>183</v>
+        <v>421</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9402,35 +9202,35 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>178</v>
+        <v>426</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9442,16 +9242,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>185</v>
+        <v>429</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>430</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>150</v>
+        <v>431</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9501,7 +9301,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>187</v>
+        <v>428</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9513,13 +9313,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>178</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9530,43 +9330,39 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9614,25 +9410,25 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9643,18 +9439,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9666,15 +9462,17 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>433</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9723,68 +9521,72 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>432</v>
+        <v>187</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>437</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>438</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
       </c>
@@ -9832,25 +9634,25 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>436</v>
+        <v>192</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
@@ -9861,7 +9663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9869,7 +9671,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>84</v>
@@ -9884,13 +9686,13 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9917,13 +9719,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -9941,10 +9743,10 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -9956,21 +9758,21 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>446</v>
+        <v>295</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9993,15 +9795,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10026,13 +9830,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10050,7 +9854,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10068,18 +9872,18 @@
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10090,7 +9894,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10105,17 +9909,15 @@
         <v>221</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10139,13 +9941,11 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10163,13 +9963,13 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10181,18 +9981,18 @@
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10203,7 +10003,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10215,13 +10015,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10248,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10272,13 +10072,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10290,18 +10090,18 @@
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>468</v>
+        <v>288</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10312,7 +10112,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10324,13 +10124,13 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10357,13 +10157,13 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10381,13 +10181,13 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -10396,21 +10196,21 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10433,15 +10233,17 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -10490,7 +10292,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10505,1226 +10307,15 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-encounter</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-encounter</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -439,7 +439,7 @@
     <t>nextVisit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-next-vaccination}
+    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-next-vaccination}
 </t>
   </si>
   <si>
@@ -453,7 +453,7 @@
     <t>extCovid19EverHospitalised</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-ever-hospitalised}
+    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-ever-hospitalised}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>extCovid19DateLastHospitalised</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-date-last-hospitalised}
+    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-date-last-hospitalised}
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1423,7 +1423,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-AdmissionTypes</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-AdmissionTypes</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1813,7 +1813,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-encounter</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-encounter</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>nextVisit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-next-vaccination}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-next-vaccination}
 </t>
   </si>
   <si>
@@ -453,7 +453,7 @@
     <t>extCovid19EverHospitalised</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-ever-hospitalised}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-ever-hospitalised}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>extCovid19DateLastHospitalised</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-date-last-hospitalised}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-date-last-hospitalised}
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1423,7 +1423,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-AdmissionTypes</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-AdmissionTypes</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1813,7 +1813,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
